--- a/data/pca/factorExposure/factorExposure_2018-02-06.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-02-06.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +723,94 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.004791557936596877</v>
+        <v>-0.008077245702236708</v>
       </c>
       <c r="C2">
-        <v>0.006194648376753552</v>
+        <v>-0.02164421870462952</v>
       </c>
       <c r="D2">
-        <v>0.02465864858861183</v>
+        <v>0.02549071736979187</v>
       </c>
       <c r="E2">
-        <v>-0.0325435112367588</v>
+        <v>0.01148521254498235</v>
       </c>
       <c r="F2">
-        <v>-0.05876254734892003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.001719753807734643</v>
+      </c>
+      <c r="G2">
+        <v>0.00236269219369466</v>
+      </c>
+      <c r="H2">
+        <v>0.03096330450881265</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.07233923825619508</v>
+        <v>-0.05212746340779274</v>
       </c>
       <c r="C3">
-        <v>0.00718769871231962</v>
+        <v>-0.07299306454437279</v>
       </c>
       <c r="D3">
-        <v>0.0002938160185112881</v>
+        <v>0.008963005149573811</v>
       </c>
       <c r="E3">
-        <v>-0.1366472216919129</v>
+        <v>0.05555246581155834</v>
       </c>
       <c r="F3">
-        <v>-0.2602287006784916</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.03562856158692689</v>
+      </c>
+      <c r="G3">
+        <v>0.04542092479464743</v>
+      </c>
+      <c r="H3">
+        <v>0.116517694400345</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.03839177131646631</v>
+        <v>-0.03497848326834128</v>
       </c>
       <c r="C4">
-        <v>-0.00844850202595908</v>
+        <v>-0.06362309156270436</v>
       </c>
       <c r="D4">
-        <v>0.02923973749658727</v>
+        <v>0.01978994604198651</v>
       </c>
       <c r="E4">
-        <v>0.008956592894673782</v>
+        <v>-0.006245307331450992</v>
       </c>
       <c r="F4">
-        <v>-0.05316685974398042</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.01997200388678878</v>
+      </c>
+      <c r="G4">
+        <v>0.04567538681698853</v>
+      </c>
+      <c r="H4">
+        <v>0.0319104164951517</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +827,250 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04449316875956624</v>
+        <v>-0.01872036154297428</v>
       </c>
       <c r="C6">
-        <v>0.005802689905866017</v>
+        <v>-0.06162062922586069</v>
       </c>
       <c r="D6">
-        <v>0.03500627931270514</v>
+        <v>0.0147036772337216</v>
       </c>
       <c r="E6">
-        <v>0.02428410396968322</v>
+        <v>-0.007512661926573502</v>
       </c>
       <c r="F6">
-        <v>-0.04074122131097864</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.004198467940639244</v>
+      </c>
+      <c r="G6">
+        <v>0.02980531297530177</v>
+      </c>
+      <c r="H6">
+        <v>0.0323831011416592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0372816573877358</v>
+        <v>-0.002603091834380687</v>
       </c>
       <c r="C7">
-        <v>-0.06488471770041757</v>
+        <v>-0.03326821053178412</v>
       </c>
       <c r="D7">
-        <v>0.005456359450910899</v>
+        <v>0.01213635323481144</v>
       </c>
       <c r="E7">
-        <v>0.004611710305151035</v>
+        <v>-0.02085538943675484</v>
       </c>
       <c r="F7">
-        <v>-0.01906425263499184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.07101323729328812</v>
+      </c>
+      <c r="G7">
+        <v>0.01171775264430279</v>
+      </c>
+      <c r="H7">
+        <v>0.02072792551685434</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.001314245402351036</v>
+        <v>0.007446346940380184</v>
       </c>
       <c r="C8">
-        <v>-0.009460357447892523</v>
+        <v>-0.001157782409335398</v>
       </c>
       <c r="D8">
-        <v>0.02813695342895855</v>
+        <v>0.002147273793058379</v>
       </c>
       <c r="E8">
-        <v>0.002037022212954954</v>
+        <v>0.004265929117410866</v>
       </c>
       <c r="F8">
-        <v>-0.05034789816785773</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.01559903572373707</v>
+      </c>
+      <c r="G8">
+        <v>0.01568924205699806</v>
+      </c>
+      <c r="H8">
+        <v>0.01244397292039552</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.02991747599397896</v>
+        <v>-0.01479591982407934</v>
       </c>
       <c r="C9">
-        <v>-0.008106439020701515</v>
+        <v>-0.04422397629093668</v>
       </c>
       <c r="D9">
-        <v>0.02933728253729381</v>
+        <v>0.01440137207567861</v>
       </c>
       <c r="E9">
-        <v>-0.01707367510320036</v>
+        <v>-0.002820469060038041</v>
       </c>
       <c r="F9">
-        <v>-0.05770385975083259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.02045578725588975</v>
+      </c>
+      <c r="G9">
+        <v>0.01579258245816569</v>
+      </c>
+      <c r="H9">
+        <v>0.03460471600156373</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.04892816792571604</v>
+        <v>-0.1259081625391016</v>
       </c>
       <c r="C10">
-        <v>0.006705993789531465</v>
+        <v>0.1546417447497853</v>
       </c>
       <c r="D10">
-        <v>-0.1555881208056172</v>
+        <v>-0.0238196234372616</v>
       </c>
       <c r="E10">
-        <v>-0.08178258082084169</v>
+        <v>0.02879115106900519</v>
       </c>
       <c r="F10">
-        <v>-0.006766823744912963</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.03691566852006769</v>
+      </c>
+      <c r="G10">
+        <v>-0.02386483107239188</v>
+      </c>
+      <c r="H10">
+        <v>-0.001552905394088672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.02893655858058854</v>
+        <v>-0.01278142140133399</v>
       </c>
       <c r="C11">
-        <v>0.007698675656856641</v>
+        <v>-0.04624630665643912</v>
       </c>
       <c r="D11">
-        <v>0.03912158552273198</v>
+        <v>0.0005577496905764766</v>
       </c>
       <c r="E11">
-        <v>0.01851563270533554</v>
+        <v>-0.009917142104672006</v>
       </c>
       <c r="F11">
-        <v>-0.02215841792135048</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.0003889556377036647</v>
+      </c>
+      <c r="G11">
+        <v>0.01166982946522171</v>
+      </c>
+      <c r="H11">
+        <v>0.03878038839286755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03739360820413225</v>
+        <v>-0.01653388162560089</v>
       </c>
       <c r="C12">
-        <v>0.003872203498788689</v>
+        <v>-0.04323070998854694</v>
       </c>
       <c r="D12">
-        <v>0.03344173794199855</v>
+        <v>0.004576615578166508</v>
       </c>
       <c r="E12">
-        <v>0.03035628966579677</v>
+        <v>-0.0144852936420468</v>
       </c>
       <c r="F12">
-        <v>-0.003761577533898843</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.0125603909858204</v>
+      </c>
+      <c r="G12">
+        <v>0.007101882749185181</v>
+      </c>
+      <c r="H12">
+        <v>0.01555582844106231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01412601496400635</v>
+        <v>-0.01083359020186806</v>
       </c>
       <c r="C13">
-        <v>0.01137955861787195</v>
+        <v>-0.02005050856744836</v>
       </c>
       <c r="D13">
-        <v>0.003170577104253933</v>
+        <v>0.02175439024762429</v>
       </c>
       <c r="E13">
-        <v>-0.01713832834228775</v>
+        <v>0.01354335475121418</v>
       </c>
       <c r="F13">
-        <v>-0.05476411392213779</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.001518135859103709</v>
+      </c>
+      <c r="G13">
+        <v>0.02808505596109855</v>
+      </c>
+      <c r="H13">
+        <v>0.04920424584551036</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01971303828400511</v>
+        <v>-0.00210338400575369</v>
       </c>
       <c r="C14">
-        <v>-0.01430589877773668</v>
+        <v>-0.01839419316497063</v>
       </c>
       <c r="D14">
-        <v>0.007706741164177269</v>
+        <v>0.007620926265796262</v>
       </c>
       <c r="E14">
-        <v>0.002393985620602674</v>
+        <v>-0.00740176374850331</v>
       </c>
       <c r="F14">
-        <v>-0.04077577328885677</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.0298977424662739</v>
+      </c>
+      <c r="G14">
+        <v>0.01266909806365446</v>
+      </c>
+      <c r="H14">
+        <v>0.009116235718682909</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1087,42 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02634871221773441</v>
+        <v>-0.01274753161838174</v>
       </c>
       <c r="C16">
-        <v>0.003804580121863078</v>
+        <v>-0.03930032457323644</v>
       </c>
       <c r="D16">
-        <v>0.0391958129992319</v>
+        <v>0.0003212523482098602</v>
       </c>
       <c r="E16">
-        <v>0.01788452568744353</v>
+        <v>-0.007077697851886562</v>
       </c>
       <c r="F16">
-        <v>-0.02472588727709692</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.006744039743250914</v>
+      </c>
+      <c r="G16">
+        <v>0.01152564179863795</v>
+      </c>
+      <c r="H16">
+        <v>0.02535585741379322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1139,16 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1165,94 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03005162639751517</v>
+        <v>-0.01550109883508187</v>
       </c>
       <c r="C19">
-        <v>0.006882143758725605</v>
+        <v>-0.03956174168343577</v>
       </c>
       <c r="D19">
-        <v>0.03245519349304026</v>
+        <v>0.01227096054489591</v>
       </c>
       <c r="E19">
-        <v>0.009720193383405655</v>
+        <v>0.01692814088346126</v>
       </c>
       <c r="F19">
-        <v>-0.08040344611385901</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.01425222224580626</v>
+      </c>
+      <c r="G19">
+        <v>0.03958143396151172</v>
+      </c>
+      <c r="H19">
+        <v>0.04351738276504533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.006510570869811651</v>
+        <v>0.0008675531236033394</v>
       </c>
       <c r="C20">
-        <v>-0.009624909781407225</v>
+        <v>-0.01838409401740383</v>
       </c>
       <c r="D20">
-        <v>0.0004158028683383426</v>
+        <v>0.01141177840311204</v>
       </c>
       <c r="E20">
-        <v>-0.007813023775123575</v>
+        <v>0.01027615268884957</v>
       </c>
       <c r="F20">
-        <v>-0.03408373928552633</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.01382616443266218</v>
+      </c>
+      <c r="G20">
+        <v>0.02147297438719812</v>
+      </c>
+      <c r="H20">
+        <v>0.01959746280770195</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.03823477680535647</v>
+        <v>-0.002801097745655954</v>
       </c>
       <c r="C21">
-        <v>-0.0187888469090107</v>
+        <v>-0.01760674635187005</v>
       </c>
       <c r="D21">
-        <v>0.0196168416843837</v>
+        <v>0.01444870154818024</v>
       </c>
       <c r="E21">
-        <v>-0.0008227192444998707</v>
+        <v>0.01268637056002056</v>
       </c>
       <c r="F21">
-        <v>-0.03380549979084136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.03921799488237479</v>
+      </c>
+      <c r="G21">
+        <v>0.0122984360921216</v>
+      </c>
+      <c r="H21">
+        <v>0.03237056081915516</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1269,16 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1295,302 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02430143388835003</v>
+        <v>-0.007279366963867346</v>
       </c>
       <c r="C24">
-        <v>0.003998568379756835</v>
+        <v>-0.03897954974216157</v>
       </c>
       <c r="D24">
-        <v>0.02876448729580293</v>
+        <v>0.005418687588163522</v>
       </c>
       <c r="E24">
-        <v>0.01598697908674354</v>
+        <v>-0.01252713126721832</v>
       </c>
       <c r="F24">
-        <v>-0.02191205457068189</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.004639156254185874</v>
+      </c>
+      <c r="G24">
+        <v>0.008610340324511809</v>
+      </c>
+      <c r="H24">
+        <v>0.03204375980766388</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.03609437513848545</v>
+        <v>-0.02266841975321237</v>
       </c>
       <c r="C25">
-        <v>0.005554133534949067</v>
+        <v>-0.04983127877136025</v>
       </c>
       <c r="D25">
-        <v>0.03091368423761636</v>
+        <v>0.008869110691978646</v>
       </c>
       <c r="E25">
-        <v>0.008878224275920736</v>
+        <v>-0.01932768463152622</v>
       </c>
       <c r="F25">
-        <v>-0.03474899021519008</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.009372409158908156</v>
+      </c>
+      <c r="G25">
+        <v>0.01747862378639133</v>
+      </c>
+      <c r="H25">
+        <v>0.0275582021813186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01352890725110462</v>
+        <v>-0.002034379643819945</v>
       </c>
       <c r="C26">
-        <v>-0.007198163836485322</v>
+        <v>-0.002740057100616172</v>
       </c>
       <c r="D26">
-        <v>0.01214190696309208</v>
+        <v>0.0231011113096619</v>
       </c>
       <c r="E26">
-        <v>-0.02793310949992221</v>
+        <v>-0.002496560792272417</v>
       </c>
       <c r="F26">
-        <v>-0.03456770322883059</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.0201470300544494</v>
+      </c>
+      <c r="G26">
+        <v>0.0001748795764546267</v>
+      </c>
+      <c r="H26">
+        <v>0.01040494313978519</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.009784054277956608</v>
+        <v>-0.003591935960789519</v>
       </c>
       <c r="C27">
-        <v>-0.003895335801471088</v>
+        <v>-0.0006216279948969001</v>
       </c>
       <c r="D27">
-        <v>-0.009616094027875621</v>
+        <v>-0.001004986559295682</v>
       </c>
       <c r="E27">
-        <v>0.01029308168503391</v>
+        <v>-6.364727848412794e-05</v>
       </c>
       <c r="F27">
-        <v>-0.0135711717105185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.008024579218040702</v>
+      </c>
+      <c r="G27">
+        <v>0.005964862271678039</v>
+      </c>
+      <c r="H27">
+        <v>-0.004988831488461154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.08892381926097849</v>
+        <v>-0.1762812627263597</v>
       </c>
       <c r="C28">
-        <v>0.01925945839688816</v>
+        <v>0.1943543048048129</v>
       </c>
       <c r="D28">
-        <v>-0.2157004971341112</v>
+        <v>-0.01868013885567536</v>
       </c>
       <c r="E28">
-        <v>-0.1022481968137998</v>
+        <v>0.02400262076749411</v>
       </c>
       <c r="F28">
-        <v>-0.004715104357891822</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.04430669893722947</v>
+      </c>
+      <c r="G28">
+        <v>-0.02075299390655882</v>
+      </c>
+      <c r="H28">
+        <v>-0.002880613980888728</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.02149777010896618</v>
+        <v>-0.008837069597286085</v>
       </c>
       <c r="C29">
-        <v>-0.01048291418547346</v>
+        <v>-0.01825027313069344</v>
       </c>
       <c r="D29">
-        <v>0.007346052168178577</v>
+        <v>0.006260845712991477</v>
       </c>
       <c r="E29">
-        <v>0.003410417971685591</v>
+        <v>-0.007420757307445461</v>
       </c>
       <c r="F29">
-        <v>-0.03833133155953865</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.02482647417148069</v>
+      </c>
+      <c r="G29">
+        <v>0.01141273537300774</v>
+      </c>
+      <c r="H29">
+        <v>0.001443056139933554</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04281350025321858</v>
+        <v>-0.02583196256347947</v>
       </c>
       <c r="C30">
-        <v>0.05327690700297495</v>
+        <v>-0.08688885212101613</v>
       </c>
       <c r="D30">
-        <v>0.06112490216360175</v>
+        <v>0.02479508310715949</v>
       </c>
       <c r="E30">
-        <v>-0.006818345272417315</v>
+        <v>-0.001655897199667923</v>
       </c>
       <c r="F30">
-        <v>-0.0815781987949816</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.02922936005480036</v>
+      </c>
+      <c r="G30">
+        <v>0.03367038587130761</v>
+      </c>
+      <c r="H30">
+        <v>0.05576116116322753</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04800802281986975</v>
+        <v>-0.03094153083968651</v>
       </c>
       <c r="C31">
-        <v>-0.004178513056311985</v>
+        <v>-0.02590723624956513</v>
       </c>
       <c r="D31">
-        <v>0.01083435186521188</v>
+        <v>0.001368890379589801</v>
       </c>
       <c r="E31">
-        <v>0.01065835980604767</v>
+        <v>-0.01021013231597311</v>
       </c>
       <c r="F31">
-        <v>-0.02264622298629188</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.02562893196166823</v>
+      </c>
+      <c r="G31">
+        <v>-0.006723471970390543</v>
+      </c>
+      <c r="H31">
+        <v>-0.01144071709745604</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.009019977289093343</v>
+        <v>-0.003590549105272231</v>
       </c>
       <c r="C32">
-        <v>-0.03114861292408652</v>
+        <v>-0.01194043425652008</v>
       </c>
       <c r="D32">
-        <v>0.02614849570426059</v>
+        <v>-0.007763797148003924</v>
       </c>
       <c r="E32">
-        <v>0.0127713747418691</v>
+        <v>0.001143673167680569</v>
       </c>
       <c r="F32">
-        <v>-0.04770086320662871</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.02823943977691435</v>
+      </c>
+      <c r="G32">
+        <v>0.06189119988205925</v>
+      </c>
+      <c r="H32">
+        <v>0.06887904817313689</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.03792577004756894</v>
+        <v>-0.01356314211001768</v>
       </c>
       <c r="C33">
-        <v>0.02324521008126747</v>
+        <v>-0.04250255330433464</v>
       </c>
       <c r="D33">
-        <v>0.03779447372294031</v>
+        <v>0.01234301212781393</v>
       </c>
       <c r="E33">
-        <v>-0.01219292013270867</v>
+        <v>0.008118830863995058</v>
       </c>
       <c r="F33">
-        <v>-0.04897169411652757</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.00755605294025012</v>
+      </c>
+      <c r="G33">
+        <v>-0.004680732536357397</v>
+      </c>
+      <c r="H33">
+        <v>0.0351696173460464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02884997475286439</v>
+        <v>-0.02506866883529216</v>
       </c>
       <c r="C34">
-        <v>-0.004395999281933872</v>
+        <v>-0.05026251432134705</v>
       </c>
       <c r="D34">
-        <v>0.03787529470898856</v>
+        <v>-0.00782634927128064</v>
       </c>
       <c r="E34">
-        <v>0.02430252613589061</v>
+        <v>-0.02386634756895614</v>
       </c>
       <c r="F34">
-        <v>-0.02637393639558884</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.01072359341217476</v>
+      </c>
+      <c r="G34">
+        <v>0.01615262182348476</v>
+      </c>
+      <c r="H34">
+        <v>0.03062055131564903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1607,42 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01569476852374982</v>
+        <v>-0.006879348419904911</v>
       </c>
       <c r="C36">
-        <v>-0.006023008687249252</v>
+        <v>-0.0003675885145360713</v>
       </c>
       <c r="D36">
-        <v>0.001766532739840474</v>
+        <v>0.01026975945956438</v>
       </c>
       <c r="E36">
-        <v>-0.006333849313898647</v>
+        <v>-0.0004891470239723493</v>
       </c>
       <c r="F36">
-        <v>-0.02376663402394636</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.01604612683576356</v>
+      </c>
+      <c r="G36">
+        <v>-0.001938724804335443</v>
+      </c>
+      <c r="H36">
+        <v>0.007997005341526872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1659,198 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02174016768111712</v>
+        <v>-0.02594851426537811</v>
       </c>
       <c r="C38">
-        <v>0.0009057184645836515</v>
+        <v>-0.01766931493628423</v>
       </c>
       <c r="D38">
-        <v>-0.0006887609084699305</v>
+        <v>-0.01015919122271877</v>
       </c>
       <c r="E38">
-        <v>-0.03097442549509646</v>
+        <v>-0.004741738619117998</v>
       </c>
       <c r="F38">
-        <v>-0.03842698821057498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.01524082081581438</v>
+      </c>
+      <c r="G38">
+        <v>0.007527432794803889</v>
+      </c>
+      <c r="H38">
+        <v>0.01514915047571781</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.02412989039054202</v>
+        <v>5.156721093028538e-05</v>
       </c>
       <c r="C39">
-        <v>-0.00122973811767059</v>
+        <v>-0.08178133988465246</v>
       </c>
       <c r="D39">
-        <v>0.05601441139297502</v>
+        <v>0.01148555277542033</v>
       </c>
       <c r="E39">
-        <v>0.007687105232733841</v>
+        <v>-0.00689254444605726</v>
       </c>
       <c r="F39">
-        <v>-0.05229326902754596</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.002234167796900964</v>
+      </c>
+      <c r="G39">
+        <v>0.01791132257244104</v>
+      </c>
+      <c r="H39">
+        <v>0.06118017541805879</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01419870379327162</v>
+        <v>-0.01609235587061935</v>
       </c>
       <c r="C40">
-        <v>0.03465632170690723</v>
+        <v>-0.02396827470911993</v>
       </c>
       <c r="D40">
-        <v>0.02190101228298185</v>
+        <v>0.009311378879991408</v>
       </c>
       <c r="E40">
-        <v>0.01475974174476479</v>
+        <v>-0.002716536982952663</v>
       </c>
       <c r="F40">
-        <v>-0.02595753092584569</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.02407457108406057</v>
+      </c>
+      <c r="G40">
+        <v>0.01916175639715108</v>
+      </c>
+      <c r="H40">
+        <v>0.0349766368083148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.01358373132147452</v>
+        <v>-0.01202428264645753</v>
       </c>
       <c r="C41">
-        <v>-0.002861960241269052</v>
+        <v>0.01089247594327782</v>
       </c>
       <c r="D41">
-        <v>-0.01226742935286756</v>
+        <v>0.002161233808166196</v>
       </c>
       <c r="E41">
-        <v>-0.01847732507987421</v>
+        <v>-0.00381148400464895</v>
       </c>
       <c r="F41">
-        <v>0.0003079716479508482</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.01389257614774801</v>
+      </c>
+      <c r="G41">
+        <v>-0.009176988209134361</v>
+      </c>
+      <c r="H41">
+        <v>-0.0001516530112351812</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2981181693234589</v>
+        <v>-0.07113452137921963</v>
       </c>
       <c r="C42">
-        <v>0.1400655836845374</v>
+        <v>-0.1718313429433991</v>
       </c>
       <c r="D42">
-        <v>0.4027253193349704</v>
+        <v>0.1244028758875282</v>
       </c>
       <c r="E42">
-        <v>-0.6565111315011307</v>
+        <v>0.1378511655498995</v>
       </c>
       <c r="F42">
-        <v>0.4966005166615812</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.006055523593393609</v>
+      </c>
+      <c r="G42">
+        <v>-0.9349722099211493</v>
+      </c>
+      <c r="H42">
+        <v>0.1889687032695506</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.01654600219769958</v>
+        <v>-0.01463791130374168</v>
       </c>
       <c r="C43">
-        <v>0.0009790509107400779</v>
+        <v>0.0066550457271791</v>
       </c>
       <c r="D43">
-        <v>-0.009258880459363386</v>
+        <v>0.002531355884284655</v>
       </c>
       <c r="E43">
-        <v>-0.01638794139768486</v>
+        <v>-0.001726140314350558</v>
       </c>
       <c r="F43">
-        <v>-0.01435518028215473</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01174887143042137</v>
+      </c>
+      <c r="G43">
+        <v>-0.00612543655843859</v>
+      </c>
+      <c r="H43">
+        <v>0.006869215438416686</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01671984556282816</v>
+        <v>-0.004080506164950336</v>
       </c>
       <c r="C44">
-        <v>-0.01419083834509188</v>
+        <v>-0.04214524704134686</v>
       </c>
       <c r="D44">
-        <v>0.02019806844965677</v>
+        <v>0.005830292464895376</v>
       </c>
       <c r="E44">
-        <v>-0.02765931584829544</v>
+        <v>0.007174346812453855</v>
       </c>
       <c r="F44">
-        <v>-0.06751718073051051</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.02565089207609014</v>
+      </c>
+      <c r="G44">
+        <v>0.008618302082184393</v>
+      </c>
+      <c r="H44">
+        <v>0.04862488910820718</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +1867,94 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.0181411922671851</v>
+        <v>0.0009838126717578702</v>
       </c>
       <c r="C46">
-        <v>-0.003833553096249528</v>
+        <v>-0.009412104347627978</v>
       </c>
       <c r="D46">
-        <v>0.03679120099829766</v>
+        <v>0.01143228332080808</v>
       </c>
       <c r="E46">
-        <v>0.00257546498350081</v>
+        <v>0.00180373695404722</v>
       </c>
       <c r="F46">
-        <v>-0.06692053460975114</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.0196501821911874</v>
+      </c>
+      <c r="G46">
+        <v>0.004586267186816895</v>
+      </c>
+      <c r="H46">
+        <v>0.0058720272814818</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.06978242263657819</v>
+        <v>-0.04984061341602608</v>
       </c>
       <c r="C47">
-        <v>0.01725300020484149</v>
+        <v>-0.06075495972065578</v>
       </c>
       <c r="D47">
-        <v>0.01126986577772928</v>
+        <v>-0.006890855132685503</v>
       </c>
       <c r="E47">
-        <v>0.02364412237334576</v>
+        <v>-0.009230799241214182</v>
       </c>
       <c r="F47">
-        <v>0.008124852127264527</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01945657905231129</v>
+      </c>
+      <c r="G47">
+        <v>-0.0129718954977562</v>
+      </c>
+      <c r="H47">
+        <v>-0.04354787815813158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02343790231786601</v>
+        <v>-0.01025359356716713</v>
       </c>
       <c r="C48">
-        <v>-0.003237495575735817</v>
+        <v>-0.01195706213449181</v>
       </c>
       <c r="D48">
-        <v>0.009089112240586963</v>
+        <v>0.0007625078133708169</v>
       </c>
       <c r="E48">
-        <v>-0.0008599690829463011</v>
+        <v>-0.002916778395799627</v>
       </c>
       <c r="F48">
-        <v>-0.02456456785676133</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.01670801661197212</v>
+      </c>
+      <c r="G48">
+        <v>0.001533456825553248</v>
+      </c>
+      <c r="H48">
+        <v>0.008580371846550541</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +1971,68 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08396696430732473</v>
+        <v>-0.05744227304757446</v>
       </c>
       <c r="C50">
-        <v>-0.00974241516518105</v>
+        <v>-0.05892274807333141</v>
       </c>
       <c r="D50">
-        <v>0.03486466983929968</v>
+        <v>-0.005888164627973785</v>
       </c>
       <c r="E50">
-        <v>0.02294161601672989</v>
+        <v>-0.01050347679375184</v>
       </c>
       <c r="F50">
-        <v>-0.02300887785324859</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.04793454437121176</v>
+      </c>
+      <c r="G50">
+        <v>-0.007018761669358369</v>
+      </c>
+      <c r="H50">
+        <v>-0.03244505849383604</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01166385706457307</v>
+        <v>-0.005461152415850481</v>
       </c>
       <c r="C51">
-        <v>-0.00942499481603307</v>
+        <v>-0.01141167921423023</v>
       </c>
       <c r="D51">
-        <v>-0.01230348831735732</v>
+        <v>0.007056675880118631</v>
       </c>
       <c r="E51">
-        <v>-0.03448218243772409</v>
+        <v>-0.005753819041189046</v>
       </c>
       <c r="F51">
-        <v>-0.06981858203285904</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.02484617749954821</v>
+      </c>
+      <c r="G51">
+        <v>0.006986151820275027</v>
+      </c>
+      <c r="H51">
+        <v>0.03456290155412153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2049,250 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1012618599247993</v>
+        <v>-0.07180659334424949</v>
       </c>
       <c r="C53">
-        <v>0.01909374658260579</v>
+        <v>-0.09321293508457337</v>
       </c>
       <c r="D53">
-        <v>0.03154485819141113</v>
+        <v>-0.007977651768861177</v>
       </c>
       <c r="E53">
-        <v>0.07058744767173374</v>
+        <v>-0.03460201703025049</v>
       </c>
       <c r="F53">
-        <v>0.01365494482510289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01765468081428562</v>
+      </c>
+      <c r="G53">
+        <v>-0.01080280123403152</v>
+      </c>
+      <c r="H53">
+        <v>-0.0512842981176802</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02589346792482651</v>
+        <v>-0.01952484967157058</v>
       </c>
       <c r="C54">
-        <v>-0.009048851883060934</v>
+        <v>0.002124665639755324</v>
       </c>
       <c r="D54">
-        <v>-0.008444680112564737</v>
+        <v>-0.005508719448069707</v>
       </c>
       <c r="E54">
-        <v>0.005540448307281814</v>
+        <v>0.001801040578785348</v>
       </c>
       <c r="F54">
-        <v>-0.02648832541454106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02645002436910857</v>
+      </c>
+      <c r="G54">
+        <v>0.006901822750822192</v>
+      </c>
+      <c r="H54">
+        <v>-0.0001705009526256604</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08377941929058359</v>
+        <v>-0.05090440094087016</v>
       </c>
       <c r="C55">
-        <v>0.01794671195626022</v>
+        <v>-0.08304654267249816</v>
       </c>
       <c r="D55">
-        <v>0.05747695767314771</v>
+        <v>-0.005614412496177437</v>
       </c>
       <c r="E55">
-        <v>0.04448937726736544</v>
+        <v>-0.02187766739965967</v>
       </c>
       <c r="F55">
-        <v>0.0143637118429719</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.01419765264463731</v>
+      </c>
+      <c r="G55">
+        <v>-0.01802065741349677</v>
+      </c>
+      <c r="H55">
+        <v>-0.04487429427661414</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1326410811367986</v>
+        <v>-0.1090335505447063</v>
       </c>
       <c r="C56">
-        <v>0.03738500624034665</v>
+        <v>-0.12931106937426</v>
       </c>
       <c r="D56">
-        <v>0.03631894276893498</v>
+        <v>-0.01750663930945415</v>
       </c>
       <c r="E56">
-        <v>0.1025495963445317</v>
+        <v>-0.03823971079403756</v>
       </c>
       <c r="F56">
-        <v>0.04379073541724301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.0007392436350904863</v>
+      </c>
+      <c r="G56">
+        <v>-0.008537721928177613</v>
+      </c>
+      <c r="H56">
+        <v>-0.0923381096749565</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04263394190689228</v>
+        <v>-0.01900342058011388</v>
       </c>
       <c r="C57">
-        <v>0.01040688033975943</v>
+        <v>-0.02434226870622542</v>
       </c>
       <c r="D57">
-        <v>0.02115476126461608</v>
+        <v>0.02344200349760069</v>
       </c>
       <c r="E57">
-        <v>-0.04522890641639167</v>
+        <v>0.03009472380839353</v>
       </c>
       <c r="F57">
-        <v>-0.03976304567663646</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.02004783917207561</v>
+      </c>
+      <c r="G57">
+        <v>0.01685902764777755</v>
+      </c>
+      <c r="H57">
+        <v>0.05133930542060106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1793219346349462</v>
+        <v>-0.06228549394572062</v>
       </c>
       <c r="C58">
-        <v>0.1592342662083033</v>
+        <v>-0.1768991922754659</v>
       </c>
       <c r="D58">
-        <v>0.2245327210666707</v>
+        <v>0.01846709137154543</v>
       </c>
       <c r="E58">
-        <v>-0.206234446127061</v>
+        <v>0.9519888926176276</v>
       </c>
       <c r="F58">
-        <v>-0.6536576931042408</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.03940282547674887</v>
+      </c>
+      <c r="G58">
+        <v>0.1666433498651382</v>
+      </c>
+      <c r="H58">
+        <v>-0.07840177964885212</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.07831192953794225</v>
+        <v>-0.1987969035136265</v>
       </c>
       <c r="C59">
-        <v>0.03940236297123909</v>
+        <v>0.1769496674982486</v>
       </c>
       <c r="D59">
-        <v>-0.1838264544959287</v>
+        <v>-0.02649797475616881</v>
       </c>
       <c r="E59">
-        <v>-0.07616679106437554</v>
+        <v>0.02154704600903809</v>
       </c>
       <c r="F59">
-        <v>-0.04643566395276973</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.01203189970744396</v>
+      </c>
+      <c r="G59">
+        <v>0.004079106273660689</v>
+      </c>
+      <c r="H59">
+        <v>0.01438749881160602</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.168499799536329</v>
+        <v>-0.2547420341149554</v>
       </c>
       <c r="C60">
-        <v>0.08151340666976158</v>
+        <v>-0.1070931608097859</v>
       </c>
       <c r="D60">
-        <v>-0.02016669550876274</v>
+        <v>-0.009585387471459567</v>
       </c>
       <c r="E60">
-        <v>-0.04504419891748021</v>
+        <v>-0.06578767318229178</v>
       </c>
       <c r="F60">
-        <v>-0.1121288269766585</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.1301217521436644</v>
+      </c>
+      <c r="G60">
+        <v>0.1443421511324065</v>
+      </c>
+      <c r="H60">
+        <v>0.3896565047466353</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02768688841854101</v>
+        <v>-0.01050644721736775</v>
       </c>
       <c r="C61">
-        <v>0.002579739623440064</v>
+        <v>-0.06440934975435686</v>
       </c>
       <c r="D61">
-        <v>0.04471907839430789</v>
+        <v>0.004017735900506837</v>
       </c>
       <c r="E61">
-        <v>0.004767153814870659</v>
+        <v>-0.009514894510240129</v>
       </c>
       <c r="F61">
-        <v>-0.02556505391559283</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.004848606920423896</v>
+      </c>
+      <c r="G61">
+        <v>0.02114875452191588</v>
+      </c>
+      <c r="H61">
+        <v>0.0446289422523053</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2309,198 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01837142796855527</v>
+        <v>-0.006852143343605534</v>
       </c>
       <c r="C63">
-        <v>-0.005633040186711989</v>
+        <v>-0.02348765622980455</v>
       </c>
       <c r="D63">
-        <v>0.01692857930577617</v>
+        <v>0.006764727739104659</v>
       </c>
       <c r="E63">
-        <v>0.00700681814703443</v>
+        <v>-0.01641092799096584</v>
       </c>
       <c r="F63">
-        <v>-0.01194843568075327</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.01892360978978449</v>
+      </c>
+      <c r="G63">
+        <v>0.007542846064388288</v>
+      </c>
+      <c r="H63">
+        <v>-0.0007410881279023186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.04238957081004987</v>
+        <v>-0.03589422988376345</v>
       </c>
       <c r="C64">
-        <v>0.002621258553523576</v>
+        <v>-0.04232011680359811</v>
       </c>
       <c r="D64">
-        <v>0.02383109400140309</v>
+        <v>0.002186059210488155</v>
       </c>
       <c r="E64">
-        <v>0.00661087435046684</v>
+        <v>-0.01921803472616051</v>
       </c>
       <c r="F64">
-        <v>-0.02426746073567118</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.009548126837253699</v>
+      </c>
+      <c r="G64">
+        <v>-0.005747614486534157</v>
+      </c>
+      <c r="H64">
+        <v>0.02372842727480836</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04886717060544792</v>
+        <v>-0.0497035911366964</v>
       </c>
       <c r="C65">
-        <v>0.006387129175086598</v>
+        <v>-0.08658166563342537</v>
       </c>
       <c r="D65">
-        <v>0.03672178965880307</v>
+        <v>0.01299901233591942</v>
       </c>
       <c r="E65">
-        <v>0.03070769033011924</v>
+        <v>-0.02113122046049964</v>
       </c>
       <c r="F65">
-        <v>-0.03558366887681678</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.01170197709982694</v>
+      </c>
+      <c r="G65">
+        <v>0.04389262358530419</v>
+      </c>
+      <c r="H65">
+        <v>0.04023125894147779</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04470544042706588</v>
+        <v>-0.01235893833561143</v>
       </c>
       <c r="C66">
-        <v>0.01816016948906912</v>
+        <v>-0.1182370239624562</v>
       </c>
       <c r="D66">
-        <v>0.0632014696115782</v>
+        <v>0.009398399882583142</v>
       </c>
       <c r="E66">
-        <v>0.04824203463412743</v>
+        <v>-0.01252036545892905</v>
       </c>
       <c r="F66">
-        <v>-0.05932374594648943</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.01163264088103938</v>
+      </c>
+      <c r="G66">
+        <v>0.04358494821400499</v>
+      </c>
+      <c r="H66">
+        <v>0.06227813295711929</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03500585590881604</v>
+        <v>-0.04896876394698028</v>
       </c>
       <c r="C67">
-        <v>0.006127183772420465</v>
+        <v>-0.02651282278999613</v>
       </c>
       <c r="D67">
-        <v>-0.01040262287607887</v>
+        <v>-0.009663847216976088</v>
       </c>
       <c r="E67">
-        <v>-0.02004732706972491</v>
+        <v>-0.01140743274786774</v>
       </c>
       <c r="F67">
-        <v>-0.02516460099891411</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.01509590380536806</v>
+      </c>
+      <c r="G67">
+        <v>0.01400054194834107</v>
+      </c>
+      <c r="H67">
+        <v>0.01182285278128005</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.08763645901354625</v>
+        <v>-0.1947608329069899</v>
       </c>
       <c r="C68">
-        <v>0.03930158554383271</v>
+        <v>0.2211717925071956</v>
       </c>
       <c r="D68">
-        <v>-0.2081061067003539</v>
+        <v>-0.007652463380520708</v>
       </c>
       <c r="E68">
-        <v>-0.09189223871619243</v>
+        <v>0.03543586309477969</v>
       </c>
       <c r="F68">
-        <v>-0.01764930540717156</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.02654303640675646</v>
+      </c>
+      <c r="G68">
+        <v>-0.03542130155528165</v>
+      </c>
+      <c r="H68">
+        <v>-0.02010484661413376</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.06039746477863629</v>
+        <v>-0.05244865854117958</v>
       </c>
       <c r="C69">
-        <v>0.01806506071819899</v>
+        <v>-0.05945588437602655</v>
       </c>
       <c r="D69">
-        <v>0.0193318392972693</v>
+        <v>-0.01155081198027189</v>
       </c>
       <c r="E69">
-        <v>0.03058887986946606</v>
+        <v>-0.03033741799181415</v>
       </c>
       <c r="F69">
-        <v>-0.006542844889805729</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.006288860431634296</v>
+      </c>
+      <c r="G69">
+        <v>0.001940570230939688</v>
+      </c>
+      <c r="H69">
+        <v>-0.01119427693625641</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2517,224 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.08521047314202722</v>
+        <v>-0.1753567809639845</v>
       </c>
       <c r="C71">
-        <v>0.02194712552846958</v>
+        <v>0.1796034721945646</v>
       </c>
       <c r="D71">
-        <v>-0.2002200215233139</v>
+        <v>-0.0136637587645515</v>
       </c>
       <c r="E71">
-        <v>-0.1292718500021386</v>
+        <v>0.04629263926976439</v>
       </c>
       <c r="F71">
-        <v>0.00216930003007295</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.04292277663336094</v>
+      </c>
+      <c r="G71">
+        <v>-0.0393487079370337</v>
+      </c>
+      <c r="H71">
+        <v>-0.006984548883776301</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09663235937248886</v>
+        <v>-0.05585552004000408</v>
       </c>
       <c r="C72">
-        <v>0.03149755907837812</v>
+        <v>-0.09821643499931552</v>
       </c>
       <c r="D72">
-        <v>0.09293834217851769</v>
+        <v>-0.01236326788012563</v>
       </c>
       <c r="E72">
-        <v>0.06492727759626848</v>
+        <v>-0.03486573271665194</v>
       </c>
       <c r="F72">
-        <v>-0.1373923704971834</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.0289412633083819</v>
+      </c>
+      <c r="G72">
+        <v>0.04927186802583447</v>
+      </c>
+      <c r="H72">
+        <v>0.06166371348727873</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.206157292417811</v>
+        <v>-0.325888965613589</v>
       </c>
       <c r="C73">
-        <v>0.1367242370600282</v>
+        <v>-0.1591360841235604</v>
       </c>
       <c r="D73">
-        <v>0.01490418247320525</v>
+        <v>-0.006025447529701559</v>
       </c>
       <c r="E73">
-        <v>-0.09085712898970641</v>
+        <v>-0.04827537257487963</v>
       </c>
       <c r="F73">
-        <v>-0.1262431942479042</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1738775729391792</v>
+      </c>
+      <c r="G73">
+        <v>0.1470054418292659</v>
+      </c>
+      <c r="H73">
+        <v>0.4782565338722312</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1311401559546221</v>
+        <v>-0.09968215296267594</v>
       </c>
       <c r="C74">
-        <v>0.03729538557520753</v>
+        <v>-0.1355168687594512</v>
       </c>
       <c r="D74">
-        <v>0.03822033549543586</v>
+        <v>-0.01566777507033191</v>
       </c>
       <c r="E74">
-        <v>0.08052602830918347</v>
+        <v>-0.04290266505381532</v>
       </c>
       <c r="F74">
-        <v>0.04651570285287113</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.01492955272645169</v>
+      </c>
+      <c r="G74">
+        <v>-0.008701923396409369</v>
+      </c>
+      <c r="H74">
+        <v>-0.0640361830500242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2266553317471011</v>
+        <v>-0.2152776718871267</v>
       </c>
       <c r="C75">
-        <v>0.07876037474592536</v>
+        <v>-0.2183915429703699</v>
       </c>
       <c r="D75">
-        <v>0.03273633842155491</v>
+        <v>-0.03742544372379739</v>
       </c>
       <c r="E75">
-        <v>0.2045962606699332</v>
+        <v>-0.05305603657216032</v>
       </c>
       <c r="F75">
-        <v>0.04410098124903387</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.01091584153359751</v>
+      </c>
+      <c r="G75">
+        <v>-0.002203455869823519</v>
+      </c>
+      <c r="H75">
+        <v>-0.1954358401646888</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2574816957263109</v>
+        <v>-0.1408158546921036</v>
       </c>
       <c r="C76">
-        <v>0.06598564097931992</v>
+        <v>-0.1855755915083627</v>
       </c>
       <c r="D76">
-        <v>0.05390288785893507</v>
+        <v>-0.02913513314164353</v>
       </c>
       <c r="E76">
-        <v>0.2543230488562774</v>
+        <v>-0.07205068586913783</v>
       </c>
       <c r="F76">
-        <v>0.1040972670418552</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.02017555000140785</v>
+      </c>
+      <c r="G76">
+        <v>-0.01075223708648432</v>
+      </c>
+      <c r="H76">
+        <v>-0.1558660370145337</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.09239790374437973</v>
+        <v>-0.04493650182007324</v>
       </c>
       <c r="C77">
-        <v>0.03335270141678481</v>
+        <v>-0.07855769569029547</v>
       </c>
       <c r="D77">
-        <v>0.08083606960411738</v>
+        <v>0.01141338749379265</v>
       </c>
       <c r="E77">
-        <v>-0.06938176546696387</v>
+        <v>0.02832863849291889</v>
       </c>
       <c r="F77">
-        <v>-0.0593316372329316</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.02027822764525154</v>
+      </c>
+      <c r="G77">
+        <v>-0.02132901613620419</v>
+      </c>
+      <c r="H77">
+        <v>0.002883808673740008</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03806735554059597</v>
+        <v>-0.02463275768976975</v>
       </c>
       <c r="C78">
-        <v>-0.0006515999950317758</v>
+        <v>-0.06564073276941086</v>
       </c>
       <c r="D78">
-        <v>0.07291430654841441</v>
+        <v>0.004404648745413696</v>
       </c>
       <c r="E78">
-        <v>0.00326239656607675</v>
+        <v>0.003387289666007884</v>
       </c>
       <c r="F78">
-        <v>-0.07165479735128037</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.004882956204340347</v>
+      </c>
+      <c r="G78">
+        <v>0.02865412267622139</v>
+      </c>
+      <c r="H78">
+        <v>0.05909336019301493</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,90 +2751,120 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.3873644135095096</v>
+        <v>-0.07705376286272698</v>
       </c>
       <c r="C80">
-        <v>-0.9024072628939936</v>
+        <v>-0.1065527968003337</v>
       </c>
       <c r="D80">
-        <v>-0.01697075620775487</v>
+        <v>0.009749867912709721</v>
       </c>
       <c r="E80">
-        <v>-0.060922102456064</v>
+        <v>-0.07586150684850546</v>
       </c>
       <c r="F80">
-        <v>-0.03512661888765134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.9459757814711945</v>
+      </c>
+      <c r="G80">
+        <v>0.04264834864127171</v>
+      </c>
+      <c r="H80">
+        <v>0.1253617673914358</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1855455544428201</v>
+        <v>-0.1298534966196677</v>
       </c>
       <c r="C81">
-        <v>0.05422173572862105</v>
+        <v>-0.1366791763297738</v>
       </c>
       <c r="D81">
-        <v>0.008828856747356726</v>
+        <v>-0.02178500174576661</v>
       </c>
       <c r="E81">
-        <v>0.1616168985186641</v>
+        <v>-0.03182738118162763</v>
       </c>
       <c r="F81">
-        <v>0.02308075152014821</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.01555468910595121</v>
+      </c>
+      <c r="G81">
+        <v>-0.002066246647589675</v>
+      </c>
+      <c r="H81">
+        <v>-0.1170586583707452</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>-0.006324650513404329</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.004449774140491038</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>-0.0009705434246377938</v>
       </c>
       <c r="E82">
-        <v>0</v>
+        <v>-0.0136135505160907</v>
       </c>
       <c r="F82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.002618938561905249</v>
+      </c>
+      <c r="G82">
+        <v>0.0008737163260441836</v>
+      </c>
+      <c r="H82">
+        <v>0.0002663465380751905</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03493324409418612</v>
+        <v>-0.02085319889431837</v>
       </c>
       <c r="C83">
-        <v>0.004222699345524829</v>
+        <v>-0.02164436845598403</v>
       </c>
       <c r="D83">
-        <v>0.01987939722969839</v>
+        <v>0.004301262838782662</v>
       </c>
       <c r="E83">
-        <v>-0.03332832085242382</v>
+        <v>0.01621330160115561</v>
       </c>
       <c r="F83">
-        <v>-0.04329194932988376</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.01890221845222671</v>
+      </c>
+      <c r="G83">
+        <v>0.01346891949490996</v>
+      </c>
+      <c r="H83">
+        <v>0.04214684166220106</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +2881,302 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2346987609687083</v>
+        <v>-0.2136012324931818</v>
       </c>
       <c r="C85">
-        <v>0.08576962571615798</v>
+        <v>-0.2301737727561296</v>
       </c>
       <c r="D85">
-        <v>0.05611842467929436</v>
+        <v>-0.02593939032088827</v>
       </c>
       <c r="E85">
-        <v>0.224037418632005</v>
+        <v>-0.08303542034014144</v>
       </c>
       <c r="F85">
-        <v>0.07247003298002309</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.04837948405465546</v>
+      </c>
+      <c r="G85">
+        <v>-0.004598495219022783</v>
+      </c>
+      <c r="H85">
+        <v>-0.1725248614120548</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.006954065808688946</v>
+        <v>-0.004675719983615288</v>
       </c>
       <c r="C86">
-        <v>-0.006273131322788774</v>
+        <v>-0.02822437380690599</v>
       </c>
       <c r="D86">
-        <v>0.04329178483456939</v>
+        <v>0.008394101697965879</v>
       </c>
       <c r="E86">
-        <v>-0.005666481374514361</v>
+        <v>0.003708026187802118</v>
       </c>
       <c r="F86">
-        <v>-0.0814869943586556</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.03118848223443156</v>
+      </c>
+      <c r="G86">
+        <v>0.0009956662061124271</v>
+      </c>
+      <c r="H86">
+        <v>0.05046716118705018</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02754608383611276</v>
+        <v>-0.0005326668540412756</v>
       </c>
       <c r="C87">
-        <v>0.006259568611749365</v>
+        <v>-0.03493013328524337</v>
       </c>
       <c r="D87">
-        <v>0.04361127605592734</v>
+        <v>0.01019677144076484</v>
       </c>
       <c r="E87">
-        <v>-0.02514970667135208</v>
+        <v>0.0402959374612736</v>
       </c>
       <c r="F87">
-        <v>-0.08416349398889912</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.01619497448308466</v>
+      </c>
+      <c r="G87">
+        <v>0.02443750428626833</v>
+      </c>
+      <c r="H87">
+        <v>0.06678454672159169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.03717603395476542</v>
+        <v>-0.04386329570994026</v>
       </c>
       <c r="C88">
-        <v>0.006769893479180637</v>
+        <v>-0.02202081653971277</v>
       </c>
       <c r="D88">
-        <v>-0.01108585799243804</v>
+        <v>0.01844865045508335</v>
       </c>
       <c r="E88">
-        <v>0.006227129292099151</v>
+        <v>-0.007514979453880649</v>
       </c>
       <c r="F88">
-        <v>0.00736791555741291</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.01813456219422191</v>
+      </c>
+      <c r="G88">
+        <v>0.008383454908508316</v>
+      </c>
+      <c r="H88">
+        <v>-0.008478195747751592</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1440722733159095</v>
+        <v>-0.302780246817619</v>
       </c>
       <c r="C89">
-        <v>0.07951614425374504</v>
+        <v>0.308897128566975</v>
       </c>
       <c r="D89">
-        <v>-0.3588446095871395</v>
+        <v>-0.02275598355784968</v>
       </c>
       <c r="E89">
-        <v>-0.09754691287063624</v>
+        <v>0.02484899816746907</v>
       </c>
       <c r="F89">
-        <v>-0.03632730552183076</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.01484367199023343</v>
+      </c>
+      <c r="G89">
+        <v>-0.02643358220346014</v>
+      </c>
+      <c r="H89">
+        <v>-0.03078876859108306</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09468928903601352</v>
+        <v>-0.2504316403822535</v>
       </c>
       <c r="C90">
-        <v>0.06048432735029932</v>
+        <v>0.2764009640555234</v>
       </c>
       <c r="D90">
-        <v>-0.323175371279069</v>
+        <v>-0.02123385154539402</v>
       </c>
       <c r="E90">
-        <v>-0.109453573815149</v>
+        <v>0.03686137022646663</v>
       </c>
       <c r="F90">
-        <v>0.01808951524740011</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.01315995546099509</v>
+      </c>
+      <c r="G90">
+        <v>-0.05018050359282513</v>
+      </c>
+      <c r="H90">
+        <v>-0.05780736903152701</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.2748450234339034</v>
+        <v>-0.1894313022984418</v>
       </c>
       <c r="C91">
-        <v>0.1059823397679381</v>
+        <v>-0.1857947149794952</v>
       </c>
       <c r="D91">
-        <v>0.06853035734468206</v>
+        <v>-0.03284869931301706</v>
       </c>
       <c r="E91">
-        <v>0.2273919910148727</v>
+        <v>-0.06359448817961764</v>
       </c>
       <c r="F91">
-        <v>0.1544200872059077</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.006165520474977058</v>
+      </c>
+      <c r="G91">
+        <v>-0.03898341013024252</v>
+      </c>
+      <c r="H91">
+        <v>-0.190989873283648</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1955056698748683</v>
+        <v>-0.2733568160812042</v>
       </c>
       <c r="C92">
-        <v>0.09504105724777172</v>
+        <v>0.1971114326919974</v>
       </c>
       <c r="D92">
-        <v>-0.3748317540023617</v>
+        <v>-0.06387542045283297</v>
       </c>
       <c r="E92">
-        <v>-0.01349800145242716</v>
+        <v>0.041250750967852</v>
       </c>
       <c r="F92">
-        <v>0.03212745541267205</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.04834937996893927</v>
+      </c>
+      <c r="G92">
+        <v>-0.02228913694554658</v>
+      </c>
+      <c r="H92">
+        <v>-0.1284144082099787</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.1346107862889991</v>
+        <v>-0.2898403692941002</v>
       </c>
       <c r="C93">
-        <v>0.09302653769207268</v>
+        <v>0.2641626806693151</v>
       </c>
       <c r="D93">
-        <v>-0.3757017937074656</v>
+        <v>-0.03081222156744402</v>
       </c>
       <c r="E93">
-        <v>-0.1651462024111736</v>
+        <v>0.04189130751203483</v>
       </c>
       <c r="F93">
-        <v>0.04809827510266388</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.0007740672083689126</v>
+      </c>
+      <c r="G93">
+        <v>-0.04430485620547654</v>
+      </c>
+      <c r="H93">
+        <v>0.0002987833228620172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2824614366758479</v>
+        <v>-0.2419826362388107</v>
       </c>
       <c r="C94">
-        <v>0.1345714987675173</v>
+        <v>-0.2338247620252202</v>
       </c>
       <c r="D94">
-        <v>0.01363444861642076</v>
+        <v>-0.02332153225180294</v>
       </c>
       <c r="E94">
-        <v>0.2920238769457312</v>
+        <v>-0.0832859389073215</v>
       </c>
       <c r="F94">
-        <v>0.03836697151651401</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.08065304797717072</v>
+      </c>
+      <c r="G94">
+        <v>0.02560262343295223</v>
+      </c>
+      <c r="H94">
+        <v>-0.4430466482398706</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.05956561570340087</v>
+        <v>-0.05182483518867552</v>
       </c>
       <c r="C95">
-        <v>0.07577764877816784</v>
+        <v>-0.09410532012884223</v>
       </c>
       <c r="D95">
-        <v>0.03165608731131122</v>
+        <v>-0.01169647757344379</v>
       </c>
       <c r="E95">
-        <v>-0.00685960469837791</v>
+        <v>0.02305633540372298</v>
       </c>
       <c r="F95">
-        <v>-0.01450685306325364</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.06787616318782604</v>
+      </c>
+      <c r="G95">
+        <v>-0.006529051766936854</v>
+      </c>
+      <c r="H95">
+        <v>0.068896564850345</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3193,16 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3219,42 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1684363343087752</v>
+        <v>-0.1920350619970277</v>
       </c>
       <c r="C98">
-        <v>0.08529729213589611</v>
+        <v>-0.06973568302578546</v>
       </c>
       <c r="D98">
-        <v>-0.03235926443728183</v>
+        <v>-0.02982249889836122</v>
       </c>
       <c r="E98">
-        <v>-0.09738779821554082</v>
+        <v>0.009722252205645172</v>
       </c>
       <c r="F98">
-        <v>-0.1233063585550509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.07517753115927039</v>
+      </c>
+      <c r="G98">
+        <v>0.0613450319170371</v>
+      </c>
+      <c r="H98">
+        <v>0.3026866210464415</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3271,16 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,85 +3297,115 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005239901625878603</v>
+        <v>-0.002556228777720206</v>
       </c>
       <c r="C101">
-        <v>-0.008789042477442423</v>
+        <v>-0.01880802423332361</v>
       </c>
       <c r="D101">
-        <v>0.03403367044594648</v>
+        <v>0.007351697256096799</v>
       </c>
       <c r="E101">
-        <v>-0.0299778180422798</v>
+        <v>0.02891912574083005</v>
       </c>
       <c r="F101">
-        <v>-0.1851689569881985</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.02742787546824155</v>
+      </c>
+      <c r="G101">
+        <v>0.03050246564709108</v>
+      </c>
+      <c r="H101">
+        <v>0.001224373903041122</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1177219307552015</v>
+        <v>-0.1066636551598386</v>
       </c>
       <c r="C102">
-        <v>0.04024548132988685</v>
+        <v>-0.1066130389673049</v>
       </c>
       <c r="D102">
-        <v>0.02151517787761296</v>
+        <v>-0.005401174481058653</v>
       </c>
       <c r="E102">
-        <v>0.1117120657660707</v>
+        <v>-0.04792444186396592</v>
       </c>
       <c r="F102">
-        <v>0.06458273888397262</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.01404983537230029</v>
+      </c>
+      <c r="G102">
+        <v>-0.0002212037899631368</v>
+      </c>
+      <c r="H102">
+        <v>-0.07233537257964122</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.0400915146847786</v>
+        <v>-0.008976657109341391</v>
       </c>
       <c r="C103">
-        <v>-0.00644259297088277</v>
+        <v>-0.01181766457102338</v>
       </c>
       <c r="D103">
-        <v>0.01195495077592433</v>
+        <v>-0.0004416361759722248</v>
       </c>
       <c r="E103">
-        <v>0.03261777065371004</v>
+        <v>-9.945499373546525e-05</v>
       </c>
       <c r="F103">
-        <v>-0.004994261441984772</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01881147432819551</v>
+      </c>
+      <c r="G103">
+        <v>-0.0006024540714894365</v>
+      </c>
+      <c r="H103">
+        <v>-0.01095776729260549</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>-0.08916826544363174</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>0.04431761404655254</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.9809720467193055</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.0430880158756255</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>0.01537388218805657</v>
+      </c>
+      <c r="G104">
+        <v>0.1048974926776177</v>
+      </c>
+      <c r="H104">
+        <v>-0.0705922787497044</v>
       </c>
     </row>
   </sheetData>
